--- a/data/trans_orig/P19D-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19D-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E695E7F-4027-430A-A3AA-3AC72E8049BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3F785D2-8435-457C-8202-628DADAC034A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B8CA1A53-DD0A-43E3-971C-0DF2F2AB4669}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{99A610C8-17A8-488B-8987-FB695F7EBAE8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="721">
   <si>
     <t>Población según el tipo de dentista que consultó en 2007 (Tasa respuesta: 78,14%)</t>
   </si>
@@ -86,13 +86,13 @@
     <t>0,24%</t>
   </si>
   <si>
-    <t>1,37%</t>
+    <t>1,46%</t>
   </si>
   <si>
     <t>0,12%</t>
   </si>
   <si>
-    <t>0,66%</t>
+    <t>0,62%</t>
   </si>
   <si>
     <t>Dentista privado/particular</t>
@@ -101,2125 +101,2107 @@
     <t>94,23%</t>
   </si>
   <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
   </si>
   <si>
     <t>92,66%</t>
   </si>
   <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>De una sociedad Médica (p.ej: Sanitas, Adeslas, Asisa)</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>De la Seguridad Social/S.A.S. (Servicio Andaluz de Salud)</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tipo de dentista que consultó en 2012 (Tasa respuesta: 86,68%)</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
     <t>89,74%</t>
   </si>
   <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>De una sociedad Médica (p.ej: Sanitas, Adeslas, Asisa)</t>
-  </si>
-  <si>
-    <t>1,47%</t>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de dentista que consultó en 2015 (Tasa respuesta: 79,98%)</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
   </si>
   <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>De la Seguridad Social/S.A.S. (Servicio Andaluz de Salud)</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,15%</t>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de dentista que consultó en 2023 (Tasa respuesta: 96,93%)</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>0,41%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
   </si>
   <si>
     <t>1,4%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
   </si>
   <si>
     <t>7,64%</t>
   </si>
   <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tipo de dentista que consultó en 2012 (Tasa respuesta: 86,68%)</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de dentista que consultó en 2015 (Tasa respuesta: 79,98%)</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de dentista que consultó en 2023 (Tasa respuesta: 96,93%)</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
     <t>6,64%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
   </si>
 </sst>
 </file>
@@ -2631,7 +2613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BF8E49-E831-492F-B11C-64A1B5BED6AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B5221B8-FF37-4EAF-A1BA-4E026FE2FC5C}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3132,10 +3114,10 @@
         <v>68</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M11" s="7">
         <v>27</v>
@@ -3144,13 +3126,13 @@
         <v>26961</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3165,13 +3147,13 @@
         <v>18890</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H12" s="7">
         <v>28</v>
@@ -3180,13 +3162,13 @@
         <v>31318</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M12" s="7">
         <v>45</v>
@@ -3195,13 +3177,13 @@
         <v>50208</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3257,7 +3239,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3269,13 +3251,13 @@
         <v>1753</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3284,13 +3266,13 @@
         <v>1018</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -3299,13 +3281,13 @@
         <v>2771</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>54</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3320,13 +3302,13 @@
         <v>455700</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H15" s="7">
         <v>532</v>
@@ -3335,13 +3317,13 @@
         <v>557656</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M15" s="7">
         <v>973</v>
@@ -3350,13 +3332,13 @@
         <v>1013355</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3371,13 +3353,13 @@
         <v>10359</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -3386,13 +3368,13 @@
         <v>12255</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -3401,13 +3383,13 @@
         <v>22615</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3422,13 +3404,13 @@
         <v>35121</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H17" s="7">
         <v>31</v>
@@ -3437,13 +3419,13 @@
         <v>32636</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M17" s="7">
         <v>64</v>
@@ -3452,13 +3434,13 @@
         <v>67756</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,7 +3496,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3532,7 +3514,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3547,7 +3529,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -3577,13 +3559,13 @@
         <v>362661</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H20" s="7">
         <v>394</v>
@@ -3592,13 +3574,13 @@
         <v>402688</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M20" s="7">
         <v>735</v>
@@ -3607,13 +3589,13 @@
         <v>765349</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3628,13 +3610,13 @@
         <v>11029</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -3643,13 +3625,13 @@
         <v>5314</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M21" s="7">
         <v>14</v>
@@ -3658,13 +3640,13 @@
         <v>16344</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>131</v>
+        <v>36</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3679,13 +3661,13 @@
         <v>31057</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H22" s="7">
         <v>30</v>
@@ -3694,13 +3676,13 @@
         <v>31183</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M22" s="7">
         <v>60</v>
@@ -3709,13 +3691,13 @@
         <v>62241</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3771,7 +3753,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3789,7 +3771,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -3798,13 +3780,13 @@
         <v>1528</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -3813,13 +3795,13 @@
         <v>1528</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3834,13 +3816,13 @@
         <v>230241</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H25" s="7">
         <v>276</v>
@@ -3849,13 +3831,13 @@
         <v>281498</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M25" s="7">
         <v>510</v>
@@ -3864,13 +3846,13 @@
         <v>511739</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,13 +3867,13 @@
         <v>9173</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H26" s="7">
         <v>12</v>
@@ -3900,13 +3882,13 @@
         <v>12326</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M26" s="7">
         <v>21</v>
@@ -3915,13 +3897,13 @@
         <v>21499</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,13 +3918,13 @@
         <v>32935</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H27" s="7">
         <v>23</v>
@@ -3951,13 +3933,13 @@
         <v>23731</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M27" s="7">
         <v>56</v>
@@ -3966,13 +3948,13 @@
         <v>56666</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,7 +4010,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -4046,7 +4028,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -4061,7 +4043,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -4070,13 +4052,13 @@
         <v>1074</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,13 +4073,13 @@
         <v>289578</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H30" s="7">
         <v>404</v>
@@ -4106,13 +4088,13 @@
         <v>410648</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>186</v>
+        <v>62</v>
       </c>
       <c r="M30" s="7">
         <v>703</v>
@@ -4160,7 +4142,7 @@
         <v>193</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>194</v>
@@ -4178,7 +4160,7 @@
         <v>196</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>130</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,13 +4175,13 @@
         <v>43160</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H32" s="7">
         <v>40</v>
@@ -4208,13 +4190,13 @@
         <v>39280</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M32" s="7">
         <v>83</v>
@@ -4223,10 +4205,10 @@
         <v>82441</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>204</v>
+        <v>79</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>205</v>
@@ -4312,13 +4294,13 @@
         <v>6796</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>208</v>
+        <v>54</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M34" s="7">
         <v>9</v>
@@ -4327,13 +4309,13 @@
         <v>9431</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,13 +4330,13 @@
         <v>2221956</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="H35" s="7">
         <v>2447</v>
@@ -4384,7 +4366,7 @@
         <v>217</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4399,13 +4381,13 @@
         <v>55875</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H36" s="7">
         <v>47</v>
@@ -4414,13 +4396,13 @@
         <v>49688</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M36" s="7">
         <v>101</v>
@@ -4429,13 +4411,13 @@
         <v>105564</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P36" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,13 +4432,13 @@
         <v>176618</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H37" s="7">
         <v>179</v>
@@ -4465,13 +4447,13 @@
         <v>183788</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M37" s="7">
         <v>351</v>
@@ -4480,13 +4462,13 @@
         <v>360406</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4542,7 +4524,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -4564,7 +4546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A275A1-F42C-42C8-8EAD-FF704815E5BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{977C7A81-BD95-4A7D-A960-99268786D03B}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4581,7 +4563,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4694,7 +4676,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4724,7 +4706,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4739,13 +4721,13 @@
         <v>327164</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H5" s="7">
         <v>310</v>
@@ -4754,13 +4736,13 @@
         <v>317505</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M5" s="7">
         <v>633</v>
@@ -4769,13 +4751,13 @@
         <v>644669</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4790,13 +4772,13 @@
         <v>12440</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -4805,13 +4787,13 @@
         <v>4887</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>250</v>
+        <v>52</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M6" s="7">
         <v>16</v>
@@ -4820,13 +4802,13 @@
         <v>17326</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>127</v>
+        <v>251</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>253</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4841,13 +4823,13 @@
         <v>40511</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H7" s="7">
         <v>45</v>
@@ -4856,13 +4838,13 @@
         <v>46666</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M7" s="7">
         <v>85</v>
@@ -4871,13 +4853,13 @@
         <v>87177</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>261</v>
+        <v>110</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4945,13 +4927,13 @@
         <v>1290</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>148</v>
+        <v>261</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4966,7 +4948,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>264</v>
+        <v>35</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -4981,7 +4963,7 @@
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>17</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4996,13 +4978,13 @@
         <v>529832</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>262</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H10" s="7">
         <v>450</v>
@@ -5011,13 +4993,13 @@
         <v>483659</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M10" s="7">
         <v>967</v>
@@ -5026,13 +5008,13 @@
         <v>1013492</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,13 +5029,13 @@
         <v>11407</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>274</v>
+        <v>191</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -5062,13 +5044,13 @@
         <v>8912</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>159</v>
+        <v>273</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M11" s="7">
         <v>20</v>
@@ -5077,13 +5059,13 @@
         <v>20319</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,13 +5080,13 @@
         <v>50930</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>281</v>
+        <v>169</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H12" s="7">
         <v>64</v>
@@ -5113,13 +5095,13 @@
         <v>67279</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>107</v>
+        <v>282</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="M12" s="7">
         <v>111</v>
@@ -5128,13 +5110,13 @@
         <v>118210</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5190,7 +5172,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5208,7 +5190,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>35</v>
+        <v>209</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5223,7 +5205,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5238,7 +5220,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,13 +5235,13 @@
         <v>496309</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H15" s="7">
         <v>561</v>
@@ -5268,13 +5250,13 @@
         <v>593088</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M15" s="7">
         <v>1039</v>
@@ -5283,13 +5265,13 @@
         <v>1089397</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,13 +5286,13 @@
         <v>24601</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>192</v>
+        <v>298</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -5319,10 +5301,10 @@
         <v>14766</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>303</v>
@@ -5373,10 +5355,10 @@
         <v>310</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M17" s="7">
         <v>107</v>
@@ -5447,7 +5429,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5579,10 +5561,10 @@
         <v>330</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="M21" s="7">
         <v>36</v>
@@ -5591,13 +5573,13 @@
         <v>45422</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>334</v>
+        <v>133</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>141</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5612,13 +5594,13 @@
         <v>71533</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="H22" s="7">
         <v>42</v>
@@ -5627,13 +5609,13 @@
         <v>47918</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>339</v>
+        <v>114</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M22" s="7">
         <v>106</v>
@@ -5642,13 +5624,13 @@
         <v>119451</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5704,7 +5686,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5722,7 +5704,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5737,7 +5719,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5767,13 +5749,13 @@
         <v>277550</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H25" s="7">
         <v>311</v>
@@ -5782,13 +5764,13 @@
         <v>343525</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="M25" s="7">
         <v>567</v>
@@ -5797,13 +5779,13 @@
         <v>621075</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5818,13 +5800,13 @@
         <v>19340</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -5833,13 +5815,13 @@
         <v>11117</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="M26" s="7">
         <v>24</v>
@@ -5848,13 +5830,13 @@
         <v>30457</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5869,13 +5851,13 @@
         <v>65523</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="H27" s="7">
         <v>33</v>
@@ -5884,13 +5866,13 @@
         <v>36990</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="M27" s="7">
         <v>96</v>
@@ -5899,13 +5881,13 @@
         <v>102513</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5961,7 +5943,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -5973,13 +5955,13 @@
         <v>1010</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>371</v>
+        <v>66</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5994,7 +5976,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>35</v>
+        <v>209</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -6003,13 +5985,13 @@
         <v>1010</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>208</v>
+        <v>370</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>372</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6024,13 +6006,13 @@
         <v>332665</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="H30" s="7">
         <v>461</v>
@@ -6039,13 +6021,13 @@
         <v>493794</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="M30" s="7">
         <v>762</v>
@@ -6054,13 +6036,13 @@
         <v>826460</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6075,13 +6057,13 @@
         <v>11368</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>39</v>
+        <v>380</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H31" s="7">
         <v>13</v>
@@ -6090,13 +6072,13 @@
         <v>14055</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>384</v>
+        <v>129</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>385</v>
+        <v>78</v>
       </c>
       <c r="M31" s="7">
         <v>23</v>
@@ -6105,13 +6087,13 @@
         <v>25423</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>71</v>
+        <v>383</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6126,13 +6108,13 @@
         <v>101372</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="H32" s="7">
         <v>91</v>
@@ -6141,13 +6123,13 @@
         <v>96292</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="M32" s="7">
         <v>182</v>
@@ -6156,13 +6138,13 @@
         <v>197664</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6236,7 +6218,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>53</v>
+        <v>148</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6251,7 +6233,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -6266,7 +6248,7 @@
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>179</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6281,13 +6263,13 @@
         <v>2413461</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="H35" s="7">
         <v>2520</v>
@@ -6296,13 +6278,13 @@
         <v>2717697</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>401</v>
+        <v>324</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="M35" s="7">
         <v>4797</v>
@@ -6311,13 +6293,13 @@
         <v>5131158</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6332,13 +6314,13 @@
         <v>97393</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>68</v>
+        <v>404</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>359</v>
+        <v>405</v>
       </c>
       <c r="H36" s="7">
         <v>70</v>
@@ -6347,13 +6329,13 @@
         <v>80922</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>407</v>
+        <v>147</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>99</v>
+        <v>406</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>408</v>
+        <v>74</v>
       </c>
       <c r="M36" s="7">
         <v>154</v>
@@ -6362,13 +6344,13 @@
         <v>178315</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>409</v>
+        <v>133</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>410</v>
+        <v>225</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>411</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6383,13 +6365,13 @@
         <v>394365</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H37" s="7">
         <v>321</v>
@@ -6398,13 +6380,13 @@
         <v>344862</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="M37" s="7">
         <v>687</v>
@@ -6413,13 +6395,13 @@
         <v>739227</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6475,7 +6457,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -6497,7 +6479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58943523-3736-4E1D-82FC-58AD5C63C74B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B62E3E-0C63-45B2-A407-12ED342EC61B}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6514,7 +6496,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6627,7 +6609,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6672,13 +6654,13 @@
         <v>305556</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="H5" s="7">
         <v>303</v>
@@ -6687,13 +6669,13 @@
         <v>296802</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="M5" s="7">
         <v>590</v>
@@ -6702,13 +6684,13 @@
         <v>602357</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6723,13 +6705,13 @@
         <v>5933</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -6738,13 +6720,13 @@
         <v>6734</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>435</v>
+        <v>328</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="M6" s="7">
         <v>12</v>
@@ -6753,13 +6735,13 @@
         <v>12667</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>440</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6774,13 +6756,13 @@
         <v>41351</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="H7" s="7">
         <v>49</v>
@@ -6789,13 +6771,13 @@
         <v>48395</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>445</v>
+        <v>334</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="M7" s="7">
         <v>88</v>
@@ -6804,13 +6786,13 @@
         <v>89746</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6899,7 +6881,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6914,7 +6896,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6929,13 +6911,13 @@
         <v>454841</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="H10" s="7">
         <v>441</v>
@@ -6944,13 +6926,13 @@
         <v>428052</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>457</v>
+        <v>158</v>
       </c>
       <c r="M10" s="7">
         <v>880</v>
@@ -6959,13 +6941,13 @@
         <v>882893</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6980,13 +6962,13 @@
         <v>5084</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>461</v>
+        <v>100</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>316</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>462</v>
+        <v>166</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
@@ -6995,13 +6977,13 @@
         <v>16120</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>463</v>
+        <v>135</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="M11" s="7">
         <v>21</v>
@@ -7010,13 +6992,13 @@
         <v>21204</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7031,13 +7013,13 @@
         <v>33153</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="H12" s="7">
         <v>53</v>
@@ -7046,13 +7028,13 @@
         <v>52547</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="M12" s="7">
         <v>84</v>
@@ -7061,13 +7043,13 @@
         <v>85700</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>474</v>
+        <v>231</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7123,7 +7105,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -7141,7 +7123,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -7150,13 +7132,13 @@
         <v>1107</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -7165,13 +7147,13 @@
         <v>1107</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>208</v>
+        <v>370</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>30</v>
+        <v>466</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7186,13 +7168,13 @@
         <v>501668</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="H15" s="7">
         <v>526</v>
@@ -7201,13 +7183,13 @@
         <v>522093</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>63</v>
+        <v>348</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="M15" s="7">
         <v>1003</v>
@@ -7216,13 +7198,13 @@
         <v>1023762</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7237,13 +7219,13 @@
         <v>13356</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -7252,13 +7234,13 @@
         <v>16117</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -7267,13 +7249,13 @@
         <v>29473</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7288,13 +7270,13 @@
         <v>40868</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>74</v>
+        <v>352</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>198</v>
+        <v>483</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -7303,13 +7285,13 @@
         <v>33764</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>201</v>
+        <v>484</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="M17" s="7">
         <v>73</v>
@@ -7318,13 +7300,13 @@
         <v>74632</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7380,7 +7362,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7392,13 +7374,13 @@
         <v>3049</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>499</v>
+        <v>219</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -7413,7 +7395,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -7425,10 +7407,10 @@
         <v>32</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>210</v>
+        <v>54</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7443,13 +7425,13 @@
         <v>434774</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>502</v>
+        <v>426</v>
       </c>
       <c r="H20" s="7">
         <v>450</v>
@@ -7458,13 +7440,13 @@
         <v>483458</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="M20" s="7">
         <v>845</v>
@@ -7473,13 +7455,13 @@
         <v>918233</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7494,13 +7476,13 @@
         <v>17744</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>273</v>
+        <v>499</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="H21" s="7">
         <v>22</v>
@@ -7509,13 +7491,13 @@
         <v>24396</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>512</v>
+        <v>275</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="M21" s="7">
         <v>37</v>
@@ -7524,13 +7506,13 @@
         <v>42140</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>514</v>
+        <v>45</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>277</v>
+        <v>503</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>166</v>
+        <v>504</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7545,13 +7527,13 @@
         <v>56805</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="H22" s="7">
         <v>35</v>
@@ -7560,13 +7542,13 @@
         <v>37030</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>519</v>
+        <v>109</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="M22" s="7">
         <v>85</v>
@@ -7575,13 +7557,13 @@
         <v>93835</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7637,7 +7619,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7655,7 +7637,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7670,7 +7652,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7700,13 +7682,13 @@
         <v>329704</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="H25" s="7">
         <v>309</v>
@@ -7715,13 +7697,13 @@
         <v>352805</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>298</v>
+        <v>517</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="M25" s="7">
         <v>600</v>
@@ -7730,13 +7712,13 @@
         <v>682508</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>59</v>
+        <v>521</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7751,13 +7733,13 @@
         <v>5322</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>345</v>
+        <v>13</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="H26" s="7">
         <v>11</v>
@@ -7766,13 +7748,13 @@
         <v>14654</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>253</v>
+        <v>524</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>131</v>
+        <v>525</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="M26" s="7">
         <v>16</v>
@@ -7781,13 +7763,13 @@
         <v>19976</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>280</v>
+        <v>527</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7802,13 +7784,13 @@
         <v>35977</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>230</v>
+        <v>531</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>366</v>
+        <v>532</v>
       </c>
       <c r="H27" s="7">
         <v>25</v>
@@ -7817,13 +7799,13 @@
         <v>28414</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>330</v>
+        <v>534</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>538</v>
+        <v>252</v>
       </c>
       <c r="M27" s="7">
         <v>58</v>
@@ -7832,13 +7814,13 @@
         <v>64390</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7894,7 +7876,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -7912,7 +7894,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -7927,7 +7909,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -7942,7 +7924,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7957,13 +7939,13 @@
         <v>334701</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>543</v>
+        <v>155</v>
       </c>
       <c r="H30" s="7">
         <v>374</v>
@@ -7972,13 +7954,13 @@
         <v>439272</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M30" s="7">
         <v>729</v>
@@ -7987,13 +7969,13 @@
         <v>773973</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8008,13 +7990,13 @@
         <v>4563</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>549</v>
+        <v>132</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="H31" s="7">
         <v>9</v>
@@ -8023,13 +8005,13 @@
         <v>10371</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>164</v>
+        <v>481</v>
       </c>
       <c r="M31" s="7">
         <v>14</v>
@@ -8038,13 +8020,13 @@
         <v>14935</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>334</v>
+        <v>548</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8059,13 +8041,13 @@
         <v>37918</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="H32" s="7">
         <v>46</v>
@@ -8074,13 +8056,13 @@
         <v>53913</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="M32" s="7">
         <v>87</v>
@@ -8089,13 +8071,13 @@
         <v>91830</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>561</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8169,7 +8151,7 @@
         <v>207</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>32</v>
+        <v>287</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -8184,7 +8166,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>451</v>
+        <v>208</v>
       </c>
       <c r="M34" s="7">
         <v>4</v>
@@ -8196,10 +8178,10 @@
         <v>54</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8214,13 +8196,13 @@
         <v>2361244</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="H35" s="7">
         <v>2403</v>
@@ -8229,13 +8211,13 @@
         <v>2522483</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>568</v>
+        <v>262</v>
       </c>
       <c r="M35" s="7">
         <v>4647</v>
@@ -8244,13 +8226,13 @@
         <v>4883727</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>571</v>
+        <v>449</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8265,13 +8247,13 @@
         <v>52003</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="H36" s="7">
         <v>81</v>
@@ -8280,13 +8262,13 @@
         <v>88392</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>575</v>
+        <v>225</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="M36" s="7">
         <v>128</v>
@@ -8295,13 +8277,13 @@
         <v>140395</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>578</v>
+        <v>454</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8316,13 +8298,13 @@
         <v>246071</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="H37" s="7">
         <v>241</v>
@@ -8331,13 +8313,13 @@
         <v>254062</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="M37" s="7">
         <v>475</v>
@@ -8346,13 +8328,13 @@
         <v>500132</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>229</v>
+        <v>579</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>587</v>
+        <v>483</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8408,7 +8390,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -8430,7 +8412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB65B00-B1FF-449B-858F-99560B0B4D02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F6F1EB1-FC12-4F8F-ABE0-76B6EA7E157D}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8447,7 +8429,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8560,7 +8542,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>83</v>
+        <v>581</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8575,7 +8557,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8590,7 +8572,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8605,13 +8587,13 @@
         <v>316203</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="H5" s="7">
         <v>184</v>
@@ -8620,13 +8602,13 @@
         <v>323495</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>214</v>
+        <v>587</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="M5" s="7">
         <v>326</v>
@@ -8635,13 +8617,13 @@
         <v>639697</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8656,13 +8638,13 @@
         <v>4835</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>600</v>
+        <v>332</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -8671,13 +8653,13 @@
         <v>2958</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -8686,13 +8668,13 @@
         <v>7793</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>602</v>
+        <v>66</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>603</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8707,13 +8689,13 @@
         <v>33380</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>519</v>
+        <v>596</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -8722,13 +8704,13 @@
         <v>15801</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>171</v>
+        <v>598</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>578</v>
+        <v>599</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>308</v>
+        <v>600</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -8737,13 +8719,13 @@
         <v>49181</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>515</v>
+        <v>602</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8817,7 +8799,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>180</v>
+        <v>603</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -8832,7 +8814,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -8847,7 +8829,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8862,13 +8844,13 @@
         <v>370882</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>298</v>
+        <v>606</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H10" s="7">
         <v>413</v>
@@ -8877,13 +8859,13 @@
         <v>455839</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="M10" s="7">
         <v>672</v>
@@ -8892,13 +8874,13 @@
         <v>826721</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8913,13 +8895,13 @@
         <v>9475</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>618</v>
+        <v>87</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>619</v>
+        <v>130</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -8928,13 +8910,13 @@
         <v>6570</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>127</v>
+        <v>356</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>579</v>
+        <v>615</v>
       </c>
       <c r="M11" s="7">
         <v>11</v>
@@ -8943,13 +8925,13 @@
         <v>16045</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>491</v>
+        <v>616</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>436</v>
+        <v>193</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>620</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8964,13 +8946,13 @@
         <v>28327</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>622</v>
+        <v>307</v>
       </c>
       <c r="H12" s="7">
         <v>23</v>
@@ -8979,13 +8961,13 @@
         <v>24287</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="M12" s="7">
         <v>41</v>
@@ -8994,13 +8976,13 @@
         <v>52615</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>627</v>
+        <v>192</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9056,7 +9038,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -9074,7 +9056,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>264</v>
+        <v>35</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -9089,7 +9071,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -9104,7 +9086,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9119,13 +9101,13 @@
         <v>500201</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>590</v>
+        <v>625</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="H15" s="7">
         <v>774</v>
@@ -9134,13 +9116,13 @@
         <v>540798</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>90</v>
+        <v>628</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="M15" s="7">
         <v>1250</v>
@@ -9149,13 +9131,13 @@
         <v>1040998</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>636</v>
+        <v>586</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -9170,13 +9152,13 @@
         <v>10888</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>552</v>
+        <v>633</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -9185,13 +9167,13 @@
         <v>3221</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>372</v>
+        <v>635</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>14</v>
+        <v>369</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>103</v>
+        <v>636</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -9200,13 +9182,13 @@
         <v>14108</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>640</v>
+        <v>89</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9221,13 +9203,13 @@
         <v>34086</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="H17" s="7">
         <v>41</v>
@@ -9236,13 +9218,13 @@
         <v>27846</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>31</v>
+        <v>643</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="M17" s="7">
         <v>79</v>
@@ -9251,13 +9233,13 @@
         <v>61932</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>648</v>
+        <v>405</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9313,7 +9295,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -9331,7 +9313,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -9346,7 +9328,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -9376,13 +9358,13 @@
         <v>590705</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="H20" s="7">
         <v>1063</v>
@@ -9394,10 +9376,10 @@
         <v>19</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>123</v>
+        <v>587</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="M20" s="7">
         <v>1645</v>
@@ -9406,13 +9388,13 @@
         <v>1284546</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>157</v>
+        <v>262</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>656</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9427,13 +9409,13 @@
         <v>12545</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>491</v>
+        <v>616</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>193</v>
+        <v>653</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>532</v>
+        <v>654</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
@@ -9442,13 +9424,13 @@
         <v>9777</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>657</v>
+        <v>251</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="M21" s="7">
         <v>26</v>
@@ -9457,13 +9439,13 @@
         <v>22322</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>661</v>
+        <v>261</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9478,13 +9460,13 @@
         <v>99257</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>664</v>
+        <v>364</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="H22" s="7">
         <v>43</v>
@@ -9493,13 +9475,13 @@
         <v>32709</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>440</v>
+        <v>662</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="M22" s="7">
         <v>91</v>
@@ -9508,13 +9490,13 @@
         <v>131966</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9570,7 +9552,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9588,7 +9570,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -9633,13 +9615,13 @@
         <v>530456</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>672</v>
+        <v>268</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="H25" s="7">
         <v>911</v>
@@ -9648,13 +9630,13 @@
         <v>539843</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>674</v>
+        <v>127</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>675</v>
+        <v>472</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="M25" s="7">
         <v>1490</v>
@@ -9663,13 +9645,13 @@
         <v>1070299</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9684,13 +9666,13 @@
         <v>6836</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>115</v>
+        <v>466</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -9702,10 +9684,10 @@
         <v>29</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="M26" s="7">
         <v>21</v>
@@ -9714,13 +9696,13 @@
         <v>15427</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>250</v>
+        <v>52</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>436</v>
+        <v>674</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>637</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9735,13 +9717,13 @@
         <v>49775</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>681</v>
+        <v>285</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>682</v>
+        <v>502</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="H27" s="7">
         <v>56</v>
@@ -9750,13 +9732,13 @@
         <v>34399</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="M27" s="7">
         <v>117</v>
@@ -9765,13 +9747,13 @@
         <v>84175</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>688</v>
+        <v>82</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>689</v>
+        <v>663</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9827,7 +9809,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -9845,7 +9827,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -9875,7 +9857,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9890,13 +9872,13 @@
         <v>592078</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>241</v>
+        <v>682</v>
       </c>
       <c r="H30" s="7">
         <v>1504</v>
@@ -9905,13 +9887,13 @@
         <v>910397</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="M30" s="7">
         <v>2379</v>
@@ -9920,13 +9902,13 @@
         <v>1502475</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>697</v>
+        <v>624</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9941,13 +9923,13 @@
         <v>12870</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>661</v>
+        <v>689</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="H31" s="7">
         <v>16</v>
@@ -9956,13 +9938,13 @@
         <v>10718</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>661</v>
+        <v>191</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="M31" s="7">
         <v>32</v>
@@ -9971,13 +9953,13 @@
         <v>23588</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>52</v>
+        <v>693</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>702</v>
+        <v>433</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>641</v>
+        <v>499</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9992,13 +9974,13 @@
         <v>74307</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>586</v>
+        <v>695</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="H32" s="7">
         <v>142</v>
@@ -10007,13 +9989,13 @@
         <v>80269</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="M32" s="7">
         <v>252</v>
@@ -10022,13 +10004,13 @@
         <v>154576</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>493</v>
+        <v>701</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10102,7 +10084,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -10132,7 +10114,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10147,13 +10129,13 @@
         <v>2900524</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="H35" s="7">
         <v>4849</v>
@@ -10162,13 +10144,13 @@
         <v>3464213</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>610</v>
+        <v>709</v>
       </c>
       <c r="M35" s="7">
         <v>7762</v>
@@ -10177,13 +10159,13 @@
         <v>6364737</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>716</v>
+        <v>609</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>718</v>
+        <v>515</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10198,13 +10180,13 @@
         <v>57450</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>719</v>
+        <v>149</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="H36" s="7">
         <v>61</v>
@@ -10213,13 +10195,13 @@
         <v>41834</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>602</v>
+        <v>66</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>720</v>
+        <v>87</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="M36" s="7">
         <v>114</v>
@@ -10228,13 +10210,13 @@
         <v>99284</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>534</v>
+        <v>712</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>602</v>
+        <v>302</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10249,13 +10231,13 @@
         <v>319134</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="H37" s="7">
         <v>313</v>
@@ -10264,13 +10246,13 @@
         <v>215311</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>41</v>
+        <v>718</v>
       </c>
       <c r="M37" s="7">
         <v>599</v>
@@ -10279,13 +10261,13 @@
         <v>534445</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>113</v>
+        <v>719</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>646</v>
+        <v>720</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>709</v>
+        <v>334</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10341,7 +10323,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19D-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19D-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3F785D2-8435-457C-8202-628DADAC034A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FD161F5-9EA5-478D-B8F0-4A4B9822EC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{99A610C8-17A8-488B-8987-FB695F7EBAE8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{82E2F244-59FF-4EB0-892B-5BD260661093}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="725">
   <si>
     <t>Población según el tipo de dentista que consultó en 2007 (Tasa respuesta: 78,14%)</t>
   </si>
@@ -86,7 +86,7 @@
     <t>0,24%</t>
   </si>
   <si>
-    <t>1,46%</t>
+    <t>1,39%</t>
   </si>
   <si>
     <t>0,12%</t>
@@ -101,2107 +101,2119 @@
     <t>94,23%</t>
   </si>
   <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>De una sociedad Médica (p.ej: Sanitas, Adeslas, Asisa)</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>De la Seguridad Social/S.A.S. (Servicio Andaluz de Salud)</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tipo de dentista que consultó en 2012 (Tasa respuesta: 86,68%)</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de dentista que consultó en 2016 (Tasa respuesta: 79,98%)</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
     <t>91,55%</t>
   </si>
   <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>De una sociedad Médica (p.ej: Sanitas, Adeslas, Asisa)</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>De la Seguridad Social/S.A.S. (Servicio Andaluz de Salud)</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de dentista que consultó en 2023 (Tasa respuesta: 96,93%)</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
   </si>
   <si>
     <t>1,12%</t>
   </si>
   <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
   </si>
   <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
   </si>
   <si>
     <t>93,22%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
   </si>
   <si>
     <t>92,62%</t>
   </si>
   <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
   </si>
   <si>
     <t>5,79%</t>
   </si>
   <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tipo de dentista que consultó en 2012 (Tasa respuesta: 86,68%)</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
   </si>
   <si>
     <t>10,3%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de dentista que consultó en 2015 (Tasa respuesta: 79,98%)</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de dentista que consultó en 2023 (Tasa respuesta: 96,93%)</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
   </si>
 </sst>
 </file>
@@ -2613,7 +2625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B5221B8-FF37-4EAF-A1BA-4E026FE2FC5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C282AF72-2D7D-4B10-84CE-17DF0B47F46D}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3015,7 +3027,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -3024,13 +3036,13 @@
         <v>3154</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3045,13 +3057,13 @@
         <v>545117</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="H10" s="7">
         <v>475</v>
@@ -3060,13 +3072,13 @@
         <v>499553</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="M10" s="7">
         <v>999</v>
@@ -3075,13 +3087,13 @@
         <v>1044670</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3096,13 +3108,13 @@
         <v>12396</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H11" s="7">
         <v>14</v>
@@ -3111,13 +3123,13 @@
         <v>14565</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M11" s="7">
         <v>27</v>
@@ -3126,13 +3138,13 @@
         <v>26961</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3147,13 +3159,13 @@
         <v>18890</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H12" s="7">
         <v>28</v>
@@ -3162,13 +3174,13 @@
         <v>31318</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M12" s="7">
         <v>45</v>
@@ -3177,13 +3189,13 @@
         <v>50208</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,7 +3251,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3251,13 +3263,13 @@
         <v>1753</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3266,13 +3278,13 @@
         <v>1018</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -3281,13 +3293,13 @@
         <v>2771</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3302,13 +3314,13 @@
         <v>455700</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H15" s="7">
         <v>532</v>
@@ -3317,13 +3329,13 @@
         <v>557656</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M15" s="7">
         <v>973</v>
@@ -3332,13 +3344,13 @@
         <v>1013355</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3353,13 +3365,13 @@
         <v>10359</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -3368,13 +3380,13 @@
         <v>12255</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -3383,13 +3395,13 @@
         <v>22615</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3404,13 +3416,13 @@
         <v>35121</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H17" s="7">
         <v>31</v>
@@ -3419,13 +3431,13 @@
         <v>32636</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>64</v>
@@ -3434,13 +3446,13 @@
         <v>67756</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,7 +3508,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3514,7 +3526,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3529,7 +3541,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -3559,13 +3571,13 @@
         <v>362661</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H20" s="7">
         <v>394</v>
@@ -3574,13 +3586,13 @@
         <v>402688</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M20" s="7">
         <v>735</v>
@@ -3589,13 +3601,13 @@
         <v>765349</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3610,13 +3622,13 @@
         <v>11029</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -3625,13 +3637,13 @@
         <v>5314</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="M21" s="7">
         <v>14</v>
@@ -3640,13 +3652,13 @@
         <v>16344</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3661,13 +3673,13 @@
         <v>31057</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H22" s="7">
         <v>30</v>
@@ -3676,13 +3688,13 @@
         <v>31183</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M22" s="7">
         <v>60</v>
@@ -3691,13 +3703,13 @@
         <v>62241</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,7 +3765,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3771,7 +3783,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -3780,13 +3792,13 @@
         <v>1528</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -3795,13 +3807,13 @@
         <v>1528</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3816,13 +3828,13 @@
         <v>230241</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H25" s="7">
         <v>276</v>
@@ -3831,13 +3843,13 @@
         <v>281498</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M25" s="7">
         <v>510</v>
@@ -3846,13 +3858,13 @@
         <v>511739</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3867,13 +3879,13 @@
         <v>9173</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H26" s="7">
         <v>12</v>
@@ -3882,13 +3894,13 @@
         <v>12326</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M26" s="7">
         <v>21</v>
@@ -3897,13 +3909,13 @@
         <v>21499</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,13 +3930,13 @@
         <v>32935</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H27" s="7">
         <v>23</v>
@@ -3933,13 +3945,13 @@
         <v>23731</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M27" s="7">
         <v>56</v>
@@ -3948,13 +3960,13 @@
         <v>56666</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,7 +4022,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -4028,7 +4040,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -4043,7 +4055,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -4052,13 +4064,13 @@
         <v>1074</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4073,13 +4085,13 @@
         <v>289578</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H30" s="7">
         <v>404</v>
@@ -4088,13 +4100,13 @@
         <v>410648</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M30" s="7">
         <v>703</v>
@@ -4103,13 +4115,13 @@
         <v>700226</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,13 +4136,13 @@
         <v>7629</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -4139,13 +4151,13 @@
         <v>4144</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M31" s="7">
         <v>12</v>
@@ -4154,13 +4166,13 @@
         <v>11773</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4175,13 +4187,13 @@
         <v>43160</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H32" s="7">
         <v>40</v>
@@ -4190,13 +4202,13 @@
         <v>39280</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M32" s="7">
         <v>83</v>
@@ -4205,13 +4217,13 @@
         <v>82441</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4279,10 +4291,10 @@
         <v>2635</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>32</v>
@@ -4294,13 +4306,13 @@
         <v>6796</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>30</v>
+        <v>179</v>
       </c>
       <c r="M34" s="7">
         <v>9</v>
@@ -4309,13 +4321,13 @@
         <v>9431</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4330,13 +4342,13 @@
         <v>2221956</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H35" s="7">
         <v>2447</v>
@@ -4345,13 +4357,13 @@
         <v>2500664</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M35" s="7">
         <v>4627</v>
@@ -4360,13 +4372,13 @@
         <v>4722620</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4411,13 +4423,13 @@
         <v>105564</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>224</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4432,13 +4444,13 @@
         <v>176618</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H37" s="7">
         <v>179</v>
@@ -4447,7 +4459,7 @@
         <v>183788</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>164</v>
+        <v>228</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>229</v>
@@ -4546,7 +4558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{977C7A81-BD95-4A7D-A960-99268786D03B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177D2E60-9533-46F9-BCD4-CA35901DEFB7}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4706,7 +4718,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,13 +4733,13 @@
         <v>327164</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H5" s="7">
         <v>310</v>
@@ -4736,13 +4748,13 @@
         <v>317505</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M5" s="7">
         <v>633</v>
@@ -4751,13 +4763,13 @@
         <v>644669</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4772,13 +4784,13 @@
         <v>12440</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -4787,7 +4799,7 @@
         <v>4887</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>52</v>
+        <v>247</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>248</v>
@@ -4808,7 +4820,7 @@
         <v>251</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>165</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4823,13 +4835,13 @@
         <v>40511</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H7" s="7">
         <v>45</v>
@@ -4838,13 +4850,13 @@
         <v>46666</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M7" s="7">
         <v>85</v>
@@ -4853,13 +4865,13 @@
         <v>87177</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>110</v>
+        <v>260</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4927,13 +4939,13 @@
         <v>1290</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4957,7 +4969,7 @@
         <v>1290</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
@@ -4978,28 +4990,28 @@
         <v>529832</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H10" s="7">
         <v>450</v>
       </c>
       <c r="I10" s="7">
-        <v>483659</v>
+        <v>483660</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M10" s="7">
         <v>967</v>
@@ -5008,13 +5020,13 @@
         <v>1013492</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5029,28 +5041,28 @@
         <v>11407</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>191</v>
+        <v>274</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
       </c>
       <c r="I11" s="7">
-        <v>8912</v>
+        <v>8913</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>274</v>
+        <v>87</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M11" s="7">
         <v>20</v>
@@ -5059,13 +5071,13 @@
         <v>20319</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>278</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5080,13 +5092,13 @@
         <v>50930</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>169</v>
+        <v>280</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H12" s="7">
         <v>64</v>
@@ -5095,13 +5107,13 @@
         <v>67279</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M12" s="7">
         <v>111</v>
@@ -5110,13 +5122,13 @@
         <v>118210</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5143,7 +5155,7 @@
         <v>523</v>
       </c>
       <c r="I13" s="7">
-        <v>559851</v>
+        <v>559852</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>47</v>
@@ -5172,7 +5184,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5190,7 +5202,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>289</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5205,7 +5217,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5220,7 +5232,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,13 +5247,13 @@
         <v>496309</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="H15" s="7">
         <v>561</v>
@@ -5250,13 +5262,13 @@
         <v>593088</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="M15" s="7">
         <v>1039</v>
@@ -5265,13 +5277,13 @@
         <v>1089397</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5286,13 +5298,13 @@
         <v>24601</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -5301,13 +5313,13 @@
         <v>14766</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>303</v>
+        <v>45</v>
       </c>
       <c r="M16" s="7">
         <v>35</v>
@@ -5316,13 +5328,13 @@
         <v>39367</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5337,13 +5349,13 @@
         <v>64496</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H17" s="7">
         <v>46</v>
@@ -5352,13 +5364,13 @@
         <v>49718</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>44</v>
+        <v>313</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="M17" s="7">
         <v>107</v>
@@ -5367,13 +5379,13 @@
         <v>114213</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>314</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,7 +5441,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5447,7 +5459,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5462,7 +5474,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5477,7 +5489,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5492,13 +5504,13 @@
         <v>449940</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H20" s="7">
         <v>427</v>
@@ -5507,13 +5519,13 @@
         <v>486126</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M20" s="7">
         <v>829</v>
@@ -5522,13 +5534,13 @@
         <v>936066</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5543,13 +5555,13 @@
         <v>18238</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="H21" s="7">
         <v>22</v>
@@ -5558,13 +5570,13 @@
         <v>27184</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>107</v>
+        <v>306</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>331</v>
+        <v>136</v>
       </c>
       <c r="M21" s="7">
         <v>36</v>
@@ -5576,10 +5588,10 @@
         <v>332</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>133</v>
+        <v>333</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5594,13 +5606,13 @@
         <v>71533</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H22" s="7">
         <v>42</v>
@@ -5609,13 +5621,13 @@
         <v>47918</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>114</v>
+        <v>339</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M22" s="7">
         <v>106</v>
@@ -5624,13 +5636,13 @@
         <v>119451</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5686,7 +5698,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5704,7 +5716,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5719,7 +5731,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>342</v>
+        <v>179</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5734,7 +5746,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5749,13 +5761,13 @@
         <v>277550</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H25" s="7">
         <v>311</v>
@@ -5764,13 +5776,13 @@
         <v>343525</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M25" s="7">
         <v>567</v>
@@ -5779,13 +5791,13 @@
         <v>621075</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5800,13 +5812,13 @@
         <v>19340</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -5815,13 +5827,13 @@
         <v>11117</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="M26" s="7">
         <v>24</v>
@@ -5830,13 +5842,13 @@
         <v>30457</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>101</v>
+        <v>360</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>359</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5851,13 +5863,13 @@
         <v>65523</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H27" s="7">
         <v>33</v>
@@ -5866,13 +5878,13 @@
         <v>36990</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M27" s="7">
         <v>96</v>
@@ -5881,13 +5893,13 @@
         <v>102513</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5943,7 +5955,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -5955,13 +5967,13 @@
         <v>1010</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>66</v>
+        <v>358</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5976,7 +5988,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>209</v>
+        <v>289</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -5985,13 +5997,13 @@
         <v>1010</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6006,13 +6018,13 @@
         <v>332665</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H30" s="7">
         <v>461</v>
@@ -6021,13 +6033,13 @@
         <v>493794</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M30" s="7">
         <v>762</v>
@@ -6036,13 +6048,13 @@
         <v>826460</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6057,13 +6069,13 @@
         <v>11368</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>179</v>
+        <v>383</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="H31" s="7">
         <v>13</v>
@@ -6072,13 +6084,13 @@
         <v>14055</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>78</v>
+        <v>386</v>
       </c>
       <c r="M31" s="7">
         <v>23</v>
@@ -6087,13 +6099,13 @@
         <v>25423</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>223</v>
+        <v>387</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6108,13 +6120,13 @@
         <v>101372</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="H32" s="7">
         <v>91</v>
@@ -6123,13 +6135,13 @@
         <v>96292</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="M32" s="7">
         <v>182</v>
@@ -6138,13 +6150,13 @@
         <v>197664</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6212,13 +6224,13 @@
         <v>2300</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6233,7 +6245,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -6242,7 +6254,7 @@
         <v>2300</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
@@ -6263,13 +6275,13 @@
         <v>2413461</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="H35" s="7">
         <v>2520</v>
@@ -6278,13 +6290,13 @@
         <v>2717697</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>324</v>
+        <v>404</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>399</v>
+        <v>348</v>
       </c>
       <c r="M35" s="7">
         <v>4797</v>
@@ -6293,13 +6305,13 @@
         <v>5131158</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6314,13 +6326,13 @@
         <v>97393</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="H36" s="7">
         <v>70</v>
@@ -6329,13 +6341,13 @@
         <v>80922</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>147</v>
+        <v>411</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>406</v>
+        <v>36</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>74</v>
+        <v>412</v>
       </c>
       <c r="M36" s="7">
         <v>154</v>
@@ -6344,13 +6356,13 @@
         <v>178315</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>133</v>
+        <v>413</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>225</v>
+        <v>414</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6365,13 +6377,13 @@
         <v>394365</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>408</v>
+        <v>288</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="H37" s="7">
         <v>321</v>
@@ -6380,13 +6392,13 @@
         <v>344862</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="M37" s="7">
         <v>687</v>
@@ -6395,13 +6407,13 @@
         <v>739227</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6479,7 +6491,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B62E3E-0C63-45B2-A407-12ED342EC61B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C453985-6EA7-4B97-B487-98DDF152029A}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6496,7 +6508,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6609,7 +6621,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6639,7 +6651,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6654,13 +6666,13 @@
         <v>305556</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="H5" s="7">
         <v>303</v>
@@ -6669,13 +6681,13 @@
         <v>296802</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="M5" s="7">
         <v>590</v>
@@ -6684,13 +6696,13 @@
         <v>602357</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6705,13 +6717,13 @@
         <v>5933</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -6720,13 +6732,13 @@
         <v>6734</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>328</v>
+        <v>437</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="M6" s="7">
         <v>12</v>
@@ -6735,13 +6747,13 @@
         <v>12667</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>304</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6756,13 +6768,13 @@
         <v>41351</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>435</v>
+        <v>77</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="H7" s="7">
         <v>49</v>
@@ -6771,13 +6783,13 @@
         <v>48395</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>334</v>
+        <v>446</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="M7" s="7">
         <v>88</v>
@@ -6786,13 +6798,13 @@
         <v>89746</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>440</v>
+        <v>286</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6866,7 +6878,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6881,7 +6893,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6896,7 +6908,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6911,13 +6923,13 @@
         <v>454841</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="H10" s="7">
         <v>441</v>
@@ -6926,13 +6938,13 @@
         <v>428052</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="M10" s="7">
         <v>880</v>
@@ -6941,13 +6953,13 @@
         <v>882893</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6962,13 +6974,13 @@
         <v>5084</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>100</v>
+        <v>459</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>316</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>166</v>
+        <v>64</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
@@ -6977,13 +6989,13 @@
         <v>16120</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="M11" s="7">
         <v>21</v>
@@ -6992,13 +7004,13 @@
         <v>21204</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>455</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7013,13 +7025,13 @@
         <v>33153</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="H12" s="7">
         <v>53</v>
@@ -7028,13 +7040,13 @@
         <v>52547</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="M12" s="7">
         <v>84</v>
@@ -7043,13 +7055,13 @@
         <v>85700</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>231</v>
+        <v>106</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7105,7 +7117,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -7123,7 +7135,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -7132,13 +7144,13 @@
         <v>1107</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -7147,13 +7159,13 @@
         <v>1107</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>466</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7168,13 +7180,13 @@
         <v>501668</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>469</v>
+        <v>22</v>
       </c>
       <c r="H15" s="7">
         <v>526</v>
@@ -7183,13 +7195,13 @@
         <v>522093</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>348</v>
+        <v>475</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="M15" s="7">
         <v>1003</v>
@@ -7198,13 +7210,13 @@
         <v>1023762</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7219,13 +7231,13 @@
         <v>13356</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>475</v>
+        <v>383</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>476</v>
+        <v>410</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -7234,13 +7246,13 @@
         <v>16117</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>477</v>
+        <v>277</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -7249,13 +7261,13 @@
         <v>29473</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>480</v>
+        <v>224</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7270,13 +7282,13 @@
         <v>40868</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>352</v>
+        <v>485</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -7285,13 +7297,13 @@
         <v>33764</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="M17" s="7">
         <v>73</v>
@@ -7300,13 +7312,13 @@
         <v>74632</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7362,7 +7374,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7374,13 +7386,13 @@
         <v>3049</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -7395,7 +7407,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -7407,10 +7419,10 @@
         <v>32</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>54</v>
+        <v>493</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>55</v>
+        <v>494</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7425,13 +7437,13 @@
         <v>434774</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>426</v>
+        <v>497</v>
       </c>
       <c r="H20" s="7">
         <v>450</v>
@@ -7440,13 +7452,13 @@
         <v>483458</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>494</v>
+        <v>62</v>
       </c>
       <c r="M20" s="7">
         <v>845</v>
@@ -7455,13 +7467,13 @@
         <v>918233</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7476,13 +7488,13 @@
         <v>17744</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>498</v>
+        <v>71</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H21" s="7">
         <v>22</v>
@@ -7491,13 +7503,13 @@
         <v>24396</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="M21" s="7">
         <v>37</v>
@@ -7506,13 +7518,13 @@
         <v>42140</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>45</v>
+        <v>505</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7527,13 +7539,13 @@
         <v>56805</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="H22" s="7">
         <v>35</v>
@@ -7542,13 +7554,13 @@
         <v>37030</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>109</v>
+        <v>512</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="M22" s="7">
         <v>85</v>
@@ -7557,13 +7569,13 @@
         <v>93835</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>511</v>
+        <v>106</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7619,7 +7631,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7637,7 +7649,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7652,7 +7664,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7667,7 +7679,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7682,13 +7694,13 @@
         <v>329704</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="H25" s="7">
         <v>309</v>
@@ -7697,13 +7709,13 @@
         <v>352805</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>517</v>
+        <v>292</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="M25" s="7">
         <v>600</v>
@@ -7712,13 +7724,13 @@
         <v>682508</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7733,13 +7745,13 @@
         <v>5322</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>13</v>
+        <v>179</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="H26" s="7">
         <v>11</v>
@@ -7748,13 +7760,13 @@
         <v>14654</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="M26" s="7">
         <v>16</v>
@@ -7763,13 +7775,13 @@
         <v>19976</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>527</v>
+        <v>361</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7784,13 +7796,13 @@
         <v>35977</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H27" s="7">
         <v>25</v>
@@ -7799,13 +7811,13 @@
         <v>28414</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>534</v>
+        <v>137</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>252</v>
+        <v>535</v>
       </c>
       <c r="M27" s="7">
         <v>58</v>
@@ -7814,13 +7826,13 @@
         <v>64390</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7876,7 +7888,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -7894,7 +7906,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -7909,7 +7921,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -7924,7 +7936,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7939,13 +7951,13 @@
         <v>334701</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>155</v>
+        <v>541</v>
       </c>
       <c r="H30" s="7">
         <v>374</v>
@@ -7954,13 +7966,13 @@
         <v>439272</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="M30" s="7">
         <v>729</v>
@@ -7969,13 +7981,13 @@
         <v>773973</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7990,13 +8002,13 @@
         <v>4563</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>132</v>
+        <v>547</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="H31" s="7">
         <v>9</v>
@@ -8005,13 +8017,13 @@
         <v>10371</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>191</v>
+        <v>549</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>481</v>
+        <v>160</v>
       </c>
       <c r="M31" s="7">
         <v>14</v>
@@ -8020,13 +8032,13 @@
         <v>14935</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>548</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8041,13 +8053,13 @@
         <v>37918</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>550</v>
+        <v>46</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="H32" s="7">
         <v>46</v>
@@ -8056,13 +8068,13 @@
         <v>53913</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>552</v>
+        <v>515</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M32" s="7">
         <v>87</v>
@@ -8071,13 +8083,13 @@
         <v>91830</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>255</v>
+        <v>558</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8145,13 +8157,13 @@
         <v>3049</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>207</v>
-      </c>
       <c r="G34" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -8160,13 +8172,13 @@
         <v>1107</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>208</v>
+        <v>451</v>
       </c>
       <c r="M34" s="7">
         <v>4</v>
@@ -8175,13 +8187,13 @@
         <v>4155</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>443</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8196,13 +8208,13 @@
         <v>2361244</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="H35" s="7">
         <v>2403</v>
@@ -8211,13 +8223,13 @@
         <v>2522483</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="M35" s="7">
         <v>4647</v>
@@ -8226,13 +8238,13 @@
         <v>4883727</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>449</v>
+        <v>567</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8247,13 +8259,13 @@
         <v>52003</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>566</v>
+        <v>358</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>567</v>
+        <v>411</v>
       </c>
       <c r="H36" s="7">
         <v>81</v>
@@ -8262,13 +8274,13 @@
         <v>88392</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>225</v>
+        <v>570</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="M36" s="7">
         <v>128</v>
@@ -8277,13 +8289,13 @@
         <v>140395</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8298,13 +8310,13 @@
         <v>246071</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="H37" s="7">
         <v>241</v>
@@ -8313,13 +8325,13 @@
         <v>254062</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="M37" s="7">
         <v>475</v>
@@ -8328,13 +8340,13 @@
         <v>500132</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>483</v>
+        <v>582</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8412,7 +8424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F6F1EB1-FC12-4F8F-ABE0-76B6EA7E157D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{826BC1DA-9B65-4538-BD35-9600B799EB43}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8429,7 +8441,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8542,7 +8554,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>581</v>
+        <v>83</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8557,7 +8569,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8572,7 +8584,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8587,13 +8599,13 @@
         <v>316203</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="H5" s="7">
         <v>184</v>
@@ -8602,13 +8614,13 @@
         <v>323495</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="M5" s="7">
         <v>326</v>
@@ -8617,13 +8629,13 @@
         <v>639697</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8638,10 +8650,10 @@
         <v>4835</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>592</v>
+        <v>383</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>593</v>
+        <v>493</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>332</v>
@@ -8653,13 +8665,13 @@
         <v>2958</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>274</v>
+        <v>594</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -8668,13 +8680,13 @@
         <v>7793</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>66</v>
+        <v>596</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>133</v>
+        <v>413</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8689,13 +8701,13 @@
         <v>33380</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -8704,13 +8716,13 @@
         <v>15801</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -8719,13 +8731,13 @@
         <v>49181</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8799,7 +8811,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -8814,7 +8826,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -8829,7 +8841,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8844,13 +8856,13 @@
         <v>370882</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="H10" s="7">
         <v>413</v>
@@ -8859,13 +8871,13 @@
         <v>455839</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>608</v>
+        <v>60</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="M10" s="7">
         <v>672</v>
@@ -8874,13 +8886,13 @@
         <v>826721</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8895,13 +8907,13 @@
         <v>9475</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -8910,13 +8922,13 @@
         <v>6570</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>356</v>
+        <v>251</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M11" s="7">
         <v>11</v>
@@ -8925,13 +8937,13 @@
         <v>16045</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>455</v>
+        <v>618</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8949,10 +8961,10 @@
         <v>231</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H12" s="7">
         <v>23</v>
@@ -8961,13 +8973,13 @@
         <v>24287</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="M12" s="7">
         <v>41</v>
@@ -8976,13 +8988,13 @@
         <v>52615</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>622</v>
+        <v>575</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9038,7 +9050,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -9071,7 +9083,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -9086,7 +9098,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9101,7 +9113,7 @@
         <v>500201</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>624</v>
+        <v>266</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>625</v>
@@ -9137,7 +9149,7 @@
         <v>631</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -9170,7 +9182,7 @@
         <v>635</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>636</v>
@@ -9185,10 +9197,10 @@
         <v>637</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>89</v>
+        <v>638</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9203,10 +9215,10 @@
         <v>34086</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>640</v>
+        <v>68</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>641</v>
@@ -9236,7 +9248,7 @@
         <v>645</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>405</v>
+        <v>488</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>646</v>
@@ -9295,7 +9307,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -9328,7 +9340,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -9343,7 +9355,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9364,7 +9376,7 @@
         <v>649</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>650</v>
+        <v>26</v>
       </c>
       <c r="H20" s="7">
         <v>1063</v>
@@ -9376,10 +9388,10 @@
         <v>19</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="M20" s="7">
         <v>1645</v>
@@ -9388,13 +9400,13 @@
         <v>1284546</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>652</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9409,7 +9421,7 @@
         <v>12545</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>653</v>
@@ -9424,10 +9436,10 @@
         <v>9777</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>251</v>
+        <v>655</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>655</v>
+        <v>50</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>656</v>
@@ -9442,10 +9454,10 @@
         <v>657</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>261</v>
+        <v>658</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>658</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9463,10 +9475,10 @@
         <v>659</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>364</v>
+        <v>660</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H22" s="7">
         <v>43</v>
@@ -9475,13 +9487,13 @@
         <v>32709</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>661</v>
+        <v>308</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>662</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>663</v>
       </c>
       <c r="M22" s="7">
         <v>91</v>
@@ -9490,13 +9502,13 @@
         <v>131966</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>664</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>665</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9552,7 +9564,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9585,7 +9597,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -9615,13 +9627,13 @@
         <v>530456</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>667</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>668</v>
       </c>
       <c r="H25" s="7">
         <v>911</v>
@@ -9630,10 +9642,10 @@
         <v>539843</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>127</v>
+        <v>668</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>669</v>
@@ -9666,13 +9678,13 @@
         <v>6836</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>302</v>
+        <v>673</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>466</v>
+        <v>30</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -9684,10 +9696,10 @@
         <v>29</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>147</v>
+        <v>411</v>
       </c>
       <c r="M26" s="7">
         <v>21</v>
@@ -9696,13 +9708,13 @@
         <v>15427</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>52</v>
+        <v>247</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>674</v>
+        <v>85</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9717,13 +9729,13 @@
         <v>49775</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>285</v>
+        <v>675</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>502</v>
+        <v>676</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="H27" s="7">
         <v>56</v>
@@ -9732,13 +9744,13 @@
         <v>34399</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>678</v>
+        <v>233</v>
       </c>
       <c r="M27" s="7">
         <v>117</v>
@@ -9747,13 +9759,13 @@
         <v>84175</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>82</v>
+        <v>229</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9809,7 +9821,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -9827,7 +9839,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -9857,7 +9869,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9872,13 +9884,13 @@
         <v>592078</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H30" s="7">
         <v>1504</v>
@@ -9887,10 +9899,10 @@
         <v>910397</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>684</v>
+        <v>210</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>685</v>
@@ -9908,7 +9920,7 @@
         <v>687</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>624</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9938,7 +9950,7 @@
         <v>10718</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>691</v>
@@ -9956,10 +9968,10 @@
         <v>693</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>433</v>
+        <v>694</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>499</v>
+        <v>695</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9974,13 +9986,13 @@
         <v>74307</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="H32" s="7">
         <v>142</v>
@@ -9989,13 +10001,13 @@
         <v>80269</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>698</v>
+        <v>507</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="M32" s="7">
         <v>252</v>
@@ -10004,13 +10016,13 @@
         <v>154576</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>702</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10099,7 +10111,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -10114,7 +10126,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10159,13 +10171,13 @@
         <v>6364737</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>710</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>515</v>
+        <v>711</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10180,13 +10192,13 @@
         <v>57450</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>219</v>
+        <v>712</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>149</v>
+        <v>713</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>305</v>
+        <v>714</v>
       </c>
       <c r="H36" s="7">
         <v>61</v>
@@ -10195,13 +10207,13 @@
         <v>41834</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>66</v>
+        <v>596</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>711</v>
+        <v>358</v>
       </c>
       <c r="M36" s="7">
         <v>114</v>
@@ -10210,13 +10222,13 @@
         <v>99284</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>302</v>
+        <v>673</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10231,13 +10243,13 @@
         <v>319134</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>715</v>
+        <v>578</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="H37" s="7">
         <v>313</v>
@@ -10246,13 +10258,13 @@
         <v>215311</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>142</v>
+        <v>719</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="M37" s="7">
         <v>599</v>
@@ -10261,13 +10273,13 @@
         <v>534445</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>334</v>
+        <v>724</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P19D-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19D-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FD161F5-9EA5-478D-B8F0-4A4B9822EC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3901802-C4CB-42F8-A5E2-8071F569C4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{82E2F244-59FF-4EB0-892B-5BD260661093}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B4C400E0-FF43-417A-9EFD-97734EE00270}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="727">
   <si>
     <t>Población según el tipo de dentista que consultó en 2007 (Tasa respuesta: 78,14%)</t>
   </si>
@@ -86,2134 +86,2140 @@
     <t>0,24%</t>
   </si>
   <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>Dentista privado/particular</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>De una sociedad Médica (p.ej: Sanitas, Adeslas, Asisa)</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>De la Seguridad Social/S.A.S. (Servicio Andaluz de Salud)</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>Dentista privado/particular</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>De una sociedad Médica (p.ej: Sanitas, Adeslas, Asisa)</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tipo de dentista que consultó en 2012 (Tasa respuesta: 86,68%)</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
   </si>
   <si>
     <t>0,37%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>De la Seguridad Social/S.A.S. (Servicio Andaluz de Salud)</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de dentista que consultó en 2016 (Tasa respuesta: 79,98%)</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de dentista que consultó en 2023 (Tasa respuesta: 96,93%)</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
   </si>
   <si>
     <t>93,66%</t>
   </si>
   <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
   </si>
   <si>
     <t>5,95%</t>
   </si>
   <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
   </si>
   <si>
     <t>1,5%</t>
   </si>
   <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
     <t>1,72%</t>
   </si>
   <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tipo de dentista que consultó en 2012 (Tasa respuesta: 86,68%)</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de dentista que consultó en 2016 (Tasa respuesta: 79,98%)</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de dentista que consultó en 2023 (Tasa respuesta: 96,93%)</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
     <t>9,74%</t>
   </si>
   <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
   </si>
 </sst>
 </file>
@@ -2625,7 +2631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C282AF72-2D7D-4B10-84CE-17DF0B47F46D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1240A5-27AE-42FE-BB9B-AB594B32E368}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3027,7 +3033,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -3036,13 +3042,13 @@
         <v>3154</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3057,13 +3063,13 @@
         <v>545117</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H10" s="7">
         <v>475</v>
@@ -3072,13 +3078,13 @@
         <v>499553</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M10" s="7">
         <v>999</v>
@@ -3087,13 +3093,13 @@
         <v>1044670</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3108,13 +3114,13 @@
         <v>12396</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H11" s="7">
         <v>14</v>
@@ -3123,13 +3129,13 @@
         <v>14565</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M11" s="7">
         <v>27</v>
@@ -3138,13 +3144,13 @@
         <v>26961</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,7 +3302,7 @@
         <v>86</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>87</v>
@@ -3344,13 +3350,13 @@
         <v>1013355</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,13 +3371,13 @@
         <v>10359</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -3380,13 +3386,13 @@
         <v>12255</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -3395,13 +3401,13 @@
         <v>22615</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,13 +3422,13 @@
         <v>35121</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>31</v>
@@ -3431,10 +3437,10 @@
         <v>32636</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>110</v>
@@ -3637,13 +3643,13 @@
         <v>5314</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>129</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M21" s="7">
         <v>14</v>
@@ -3652,13 +3658,13 @@
         <v>16344</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3673,13 +3679,13 @@
         <v>31057</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H22" s="7">
         <v>30</v>
@@ -3688,13 +3694,13 @@
         <v>31183</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M22" s="7">
         <v>60</v>
@@ -3703,13 +3709,13 @@
         <v>62241</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3765,7 +3771,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3783,7 +3789,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -3792,13 +3798,13 @@
         <v>1528</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -3807,13 +3813,13 @@
         <v>1528</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3828,13 +3834,13 @@
         <v>230241</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H25" s="7">
         <v>276</v>
@@ -3843,13 +3849,13 @@
         <v>281498</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M25" s="7">
         <v>510</v>
@@ -3858,13 +3864,13 @@
         <v>511739</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,13 +3885,13 @@
         <v>9173</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H26" s="7">
         <v>12</v>
@@ -3894,13 +3900,13 @@
         <v>12326</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M26" s="7">
         <v>21</v>
@@ -3909,13 +3915,13 @@
         <v>21499</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,13 +3936,13 @@
         <v>32935</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H27" s="7">
         <v>23</v>
@@ -3945,13 +3951,13 @@
         <v>23731</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M27" s="7">
         <v>56</v>
@@ -3960,13 +3966,13 @@
         <v>56666</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4022,7 +4028,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -4040,7 +4046,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -4055,7 +4061,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -4064,13 +4070,13 @@
         <v>1074</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4091,13 @@
         <v>289578</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H30" s="7">
         <v>404</v>
@@ -4100,13 +4106,13 @@
         <v>410648</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>61</v>
+        <v>186</v>
       </c>
       <c r="M30" s="7">
         <v>703</v>
@@ -4115,13 +4121,13 @@
         <v>700226</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,13 +4142,13 @@
         <v>7629</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -4151,13 +4157,13 @@
         <v>4144</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>86</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M31" s="7">
         <v>12</v>
@@ -4166,13 +4172,13 @@
         <v>11773</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,13 +4193,13 @@
         <v>43160</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H32" s="7">
         <v>40</v>
@@ -4202,13 +4208,13 @@
         <v>39280</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M32" s="7">
         <v>83</v>
@@ -4217,13 +4223,13 @@
         <v>82441</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,10 +4297,10 @@
         <v>2635</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>32</v>
@@ -4309,10 +4315,10 @@
         <v>86</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>53</v>
+        <v>208</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>179</v>
+        <v>13</v>
       </c>
       <c r="M34" s="7">
         <v>9</v>
@@ -4321,13 +4327,13 @@
         <v>9431</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>53</v>
+        <v>210</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>208</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,13 +4348,13 @@
         <v>2221956</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>211</v>
+        <v>26</v>
       </c>
       <c r="H35" s="7">
         <v>2447</v>
@@ -4357,13 +4363,13 @@
         <v>2500664</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M35" s="7">
         <v>4627</v>
@@ -4372,13 +4378,13 @@
         <v>4722620</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4393,13 +4399,13 @@
         <v>55875</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H36" s="7">
         <v>47</v>
@@ -4408,13 +4414,13 @@
         <v>49688</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M36" s="7">
         <v>101</v>
@@ -4423,13 +4429,13 @@
         <v>105564</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4444,13 +4450,13 @@
         <v>176618</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H37" s="7">
         <v>179</v>
@@ -4459,13 +4465,13 @@
         <v>183788</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M37" s="7">
         <v>351</v>
@@ -4474,13 +4480,13 @@
         <v>360406</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4536,7 +4542,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -4558,7 +4564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177D2E60-9533-46F9-BCD4-CA35901DEFB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DFC50F3-2DE7-49A2-9E3B-14BBF9128048}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4575,7 +4581,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4688,7 +4694,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4718,7 +4724,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4733,13 +4739,13 @@
         <v>327164</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>118</v>
+        <v>239</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H5" s="7">
         <v>310</v>
@@ -4748,13 +4754,13 @@
         <v>317505</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M5" s="7">
         <v>633</v>
@@ -4763,13 +4769,13 @@
         <v>644669</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4787,10 +4793,10 @@
         <v>72</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -4799,13 +4805,13 @@
         <v>4887</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M6" s="7">
         <v>16</v>
@@ -4814,13 +4820,13 @@
         <v>17326</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>251</v>
+        <v>127</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4835,13 +4841,13 @@
         <v>40511</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H7" s="7">
         <v>45</v>
@@ -4850,13 +4856,13 @@
         <v>46666</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M7" s="7">
         <v>85</v>
@@ -4865,13 +4871,13 @@
         <v>87177</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,13 +4945,13 @@
         <v>1290</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>263</v>
+        <v>148</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4960,7 +4966,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>35</v>
+        <v>264</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -4969,13 +4975,13 @@
         <v>1290</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>248</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4990,7 +4996,7 @@
         <v>529832</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>264</v>
+        <v>157</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>265</v>
@@ -5002,7 +5008,7 @@
         <v>450</v>
       </c>
       <c r="I10" s="7">
-        <v>483660</v>
+        <v>483659</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>267</v>
@@ -5053,13 +5059,13 @@
         <v>9</v>
       </c>
       <c r="I11" s="7">
-        <v>8913</v>
+        <v>8912</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>277</v>
@@ -5077,7 +5083,7 @@
         <v>279</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>67</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5092,13 +5098,13 @@
         <v>50930</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H12" s="7">
         <v>64</v>
@@ -5107,10 +5113,10 @@
         <v>67279</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>284</v>
+        <v>107</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>285</v>
@@ -5155,7 +5161,7 @@
         <v>523</v>
       </c>
       <c r="I13" s="7">
-        <v>559852</v>
+        <v>559851</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>47</v>
@@ -5202,7 +5208,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>289</v>
+        <v>35</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5217,7 +5223,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5232,7 +5238,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,13 +5253,13 @@
         <v>496309</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="H15" s="7">
         <v>561</v>
@@ -5262,13 +5268,13 @@
         <v>593088</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="M15" s="7">
         <v>1039</v>
@@ -5277,13 +5283,13 @@
         <v>1089397</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5298,13 +5304,13 @@
         <v>24601</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -5313,13 +5319,13 @@
         <v>14766</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>305</v>
+        <v>178</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>45</v>
+        <v>303</v>
       </c>
       <c r="M16" s="7">
         <v>35</v>
@@ -5328,13 +5334,13 @@
         <v>39367</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5349,13 +5355,13 @@
         <v>64496</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="H17" s="7">
         <v>46</v>
@@ -5364,13 +5370,13 @@
         <v>49718</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>314</v>
+        <v>139</v>
       </c>
       <c r="M17" s="7">
         <v>107</v>
@@ -5379,13 +5385,13 @@
         <v>114213</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>201</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,7 +5465,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5474,7 +5480,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5489,7 +5495,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5504,13 +5510,13 @@
         <v>449940</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="H20" s="7">
         <v>427</v>
@@ -5519,13 +5525,13 @@
         <v>486126</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="M20" s="7">
         <v>829</v>
@@ -5534,13 +5540,13 @@
         <v>936066</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5555,13 +5561,13 @@
         <v>18238</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="H21" s="7">
         <v>22</v>
@@ -5570,13 +5576,13 @@
         <v>27184</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="K21" s="7" t="s">
-        <v>306</v>
-      </c>
       <c r="L21" s="7" t="s">
-        <v>136</v>
+        <v>332</v>
       </c>
       <c r="M21" s="7">
         <v>36</v>
@@ -5585,13 +5591,13 @@
         <v>45422</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>334</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5698,7 +5704,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5731,7 +5737,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5746,7 +5752,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5761,13 +5767,13 @@
         <v>277550</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H25" s="7">
         <v>311</v>
@@ -5776,13 +5782,13 @@
         <v>343525</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M25" s="7">
         <v>567</v>
@@ -5791,13 +5797,13 @@
         <v>621075</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5812,10 +5818,10 @@
         <v>19340</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>356</v>
@@ -5827,13 +5833,13 @@
         <v>11117</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="M26" s="7">
         <v>24</v>
@@ -5842,13 +5848,13 @@
         <v>30457</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5881,10 +5887,10 @@
         <v>365</v>
       </c>
       <c r="K27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="M27" s="7">
         <v>96</v>
@@ -5893,13 +5899,13 @@
         <v>102513</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5955,7 +5961,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -5967,13 +5973,13 @@
         <v>1010</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5988,7 +5994,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>289</v>
+        <v>35</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -5997,13 +6003,13 @@
         <v>1010</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>372</v>
+        <v>208</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6069,13 +6075,13 @@
         <v>11368</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="H31" s="7">
         <v>13</v>
@@ -6084,13 +6090,13 @@
         <v>14055</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="M31" s="7">
         <v>23</v>
@@ -6099,13 +6105,13 @@
         <v>25423</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>387</v>
+        <v>224</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>388</v>
+        <v>71</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6120,13 +6126,13 @@
         <v>101372</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H32" s="7">
         <v>91</v>
@@ -6135,13 +6141,13 @@
         <v>96292</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="M32" s="7">
         <v>182</v>
@@ -6150,13 +6156,13 @@
         <v>197664</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6224,13 +6230,13 @@
         <v>2300</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>146</v>
+        <v>53</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6245,7 +6251,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -6254,13 +6260,13 @@
         <v>2300</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>16</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6275,13 +6281,13 @@
         <v>2413461</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H35" s="7">
         <v>2520</v>
@@ -6290,13 +6296,13 @@
         <v>2717697</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>348</v>
+        <v>402</v>
       </c>
       <c r="M35" s="7">
         <v>4797</v>
@@ -6305,13 +6311,13 @@
         <v>5131158</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6326,13 +6332,13 @@
         <v>97393</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>409</v>
+        <v>68</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>410</v>
+        <v>359</v>
       </c>
       <c r="H36" s="7">
         <v>70</v>
@@ -6341,13 +6347,13 @@
         <v>80922</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="M36" s="7">
         <v>154</v>
@@ -6356,13 +6362,13 @@
         <v>178315</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>102</v>
+        <v>411</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6377,13 +6383,13 @@
         <v>394365</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>288</v>
+        <v>413</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H37" s="7">
         <v>321</v>
@@ -6392,13 +6398,13 @@
         <v>344862</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="M37" s="7">
         <v>687</v>
@@ -6407,13 +6413,13 @@
         <v>739227</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6469,7 +6475,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -6491,7 +6497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C453985-6EA7-4B97-B487-98DDF152029A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06CC5955-2EF0-4F69-A0E2-34D7B0E02B9D}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6508,7 +6514,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6621,7 +6627,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6651,7 +6657,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6666,13 +6672,13 @@
         <v>305556</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="H5" s="7">
         <v>303</v>
@@ -6681,13 +6687,13 @@
         <v>296802</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="M5" s="7">
         <v>590</v>
@@ -6696,13 +6702,13 @@
         <v>602357</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6717,13 +6723,13 @@
         <v>5933</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>436</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -6732,13 +6738,13 @@
         <v>6734</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>439</v>
       </c>
       <c r="M6" s="7">
         <v>12</v>
@@ -6747,13 +6753,13 @@
         <v>12667</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6768,13 +6774,13 @@
         <v>41351</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>444</v>
       </c>
       <c r="H7" s="7">
         <v>49</v>
@@ -6783,13 +6789,13 @@
         <v>48395</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>447</v>
       </c>
       <c r="M7" s="7">
         <v>88</v>
@@ -6798,10 +6804,10 @@
         <v>89746</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>449</v>
@@ -6878,7 +6884,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6944,7 +6950,7 @@
         <v>456</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>210</v>
+        <v>457</v>
       </c>
       <c r="M10" s="7">
         <v>880</v>
@@ -6953,13 +6959,13 @@
         <v>882893</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6974,13 +6980,13 @@
         <v>5084</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>316</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>64</v>
+        <v>462</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
@@ -6989,13 +6995,13 @@
         <v>16120</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>132</v>
+        <v>463</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="M11" s="7">
         <v>21</v>
@@ -7004,13 +7010,13 @@
         <v>21204</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>132</v>
+        <v>466</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7025,13 +7031,13 @@
         <v>33153</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="H12" s="7">
         <v>53</v>
@@ -7040,13 +7046,13 @@
         <v>52547</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="M12" s="7">
         <v>84</v>
@@ -7055,13 +7061,13 @@
         <v>85700</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>106</v>
+        <v>474</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7135,7 +7141,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -7150,7 +7156,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -7159,7 +7165,7 @@
         <v>1107</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>372</v>
+        <v>208</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
@@ -7180,13 +7186,13 @@
         <v>501668</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>22</v>
+        <v>480</v>
       </c>
       <c r="H15" s="7">
         <v>526</v>
@@ -7195,13 +7201,13 @@
         <v>522093</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>475</v>
+        <v>63</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="M15" s="7">
         <v>1003</v>
@@ -7210,13 +7216,13 @@
         <v>1023762</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7231,13 +7237,13 @@
         <v>13356</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>383</v>
+        <v>486</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>410</v>
+        <v>487</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -7246,13 +7252,13 @@
         <v>16117</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>277</v>
+        <v>488</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -7261,13 +7267,13 @@
         <v>29473</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>224</v>
+        <v>491</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7282,13 +7288,13 @@
         <v>40868</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>485</v>
+        <v>74</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>486</v>
+        <v>198</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -7297,13 +7303,13 @@
         <v>33764</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>487</v>
+        <v>201</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="M17" s="7">
         <v>73</v>
@@ -7312,13 +7318,13 @@
         <v>74632</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7386,13 +7392,13 @@
         <v>3049</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>451</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>224</v>
+        <v>499</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -7419,10 +7425,10 @@
         <v>32</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>493</v>
+        <v>210</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>494</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7437,13 +7443,13 @@
         <v>434774</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="H20" s="7">
         <v>450</v>
@@ -7452,13 +7458,13 @@
         <v>483458</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>62</v>
+        <v>505</v>
       </c>
       <c r="M20" s="7">
         <v>845</v>
@@ -7467,13 +7473,13 @@
         <v>918233</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>479</v>
+        <v>508</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7488,13 +7494,13 @@
         <v>17744</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>71</v>
+        <v>509</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>460</v>
+        <v>273</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="H21" s="7">
         <v>22</v>
@@ -7503,13 +7509,13 @@
         <v>24396</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>249</v>
+        <v>512</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="M21" s="7">
         <v>37</v>
@@ -7518,13 +7524,13 @@
         <v>42140</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>506</v>
+        <v>277</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>507</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7539,13 +7545,13 @@
         <v>56805</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="H22" s="7">
         <v>35</v>
@@ -7554,13 +7560,13 @@
         <v>37030</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="M22" s="7">
         <v>85</v>
@@ -7569,13 +7575,13 @@
         <v>93835</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>106</v>
+        <v>522</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7631,7 +7637,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7649,7 +7655,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7664,7 +7670,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7679,7 +7685,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7694,13 +7700,13 @@
         <v>329704</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="H25" s="7">
         <v>309</v>
@@ -7709,13 +7715,13 @@
         <v>352805</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="M25" s="7">
         <v>600</v>
@@ -7724,13 +7730,13 @@
         <v>682508</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>523</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7745,13 +7751,13 @@
         <v>5322</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="H26" s="7">
         <v>11</v>
@@ -7760,13 +7766,13 @@
         <v>14654</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>526</v>
+        <v>253</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>527</v>
+        <v>131</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="M26" s="7">
         <v>16</v>
@@ -7775,13 +7781,13 @@
         <v>19976</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>361</v>
+        <v>280</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7796,13 +7802,13 @@
         <v>35977</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>532</v>
+        <v>230</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>533</v>
+        <v>366</v>
       </c>
       <c r="H27" s="7">
         <v>25</v>
@@ -7811,13 +7817,13 @@
         <v>28414</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>137</v>
+        <v>330</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="M27" s="7">
         <v>58</v>
@@ -7826,13 +7832,13 @@
         <v>64390</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7888,7 +7894,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -7906,7 +7912,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -7936,7 +7942,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7951,13 +7957,13 @@
         <v>334701</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="H30" s="7">
         <v>374</v>
@@ -7966,13 +7972,13 @@
         <v>439272</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="M30" s="7">
         <v>729</v>
@@ -7984,10 +7990,10 @@
         <v>270</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8002,13 +8008,13 @@
         <v>4563</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="H31" s="7">
         <v>9</v>
@@ -8017,13 +8023,13 @@
         <v>10371</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>549</v>
+        <v>132</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M31" s="7">
         <v>14</v>
@@ -8032,13 +8038,13 @@
         <v>14935</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8053,13 +8059,13 @@
         <v>37918</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>46</v>
+        <v>554</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="H32" s="7">
         <v>46</v>
@@ -8068,13 +8074,13 @@
         <v>53913</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>515</v>
+        <v>556</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="M32" s="7">
         <v>87</v>
@@ -8083,13 +8089,13 @@
         <v>91830</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8157,13 +8163,13 @@
         <v>3049</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>290</v>
+        <v>32</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -8172,7 +8178,7 @@
         <v>1107</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
@@ -8187,13 +8193,13 @@
         <v>4155</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>84</v>
+        <v>451</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8208,13 +8214,13 @@
         <v>2361244</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="H35" s="7">
         <v>2403</v>
@@ -8223,13 +8229,13 @@
         <v>2522483</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>269</v>
+        <v>568</v>
       </c>
       <c r="M35" s="7">
         <v>4647</v>
@@ -8238,13 +8244,13 @@
         <v>4883727</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8259,13 +8265,13 @@
         <v>52003</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>358</v>
+        <v>531</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>411</v>
+        <v>573</v>
       </c>
       <c r="H36" s="7">
         <v>81</v>
@@ -8274,13 +8280,13 @@
         <v>88392</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="M36" s="7">
         <v>128</v>
@@ -8289,13 +8295,13 @@
         <v>140395</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>462</v>
+        <v>578</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8310,13 +8316,13 @@
         <v>246071</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="H37" s="7">
         <v>241</v>
@@ -8325,13 +8331,13 @@
         <v>254062</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="M37" s="7">
         <v>475</v>
@@ -8340,13 +8346,13 @@
         <v>500132</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>581</v>
+        <v>229</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8402,7 +8408,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -8424,7 +8430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{826BC1DA-9B65-4538-BD35-9600B799EB43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4512631-9A88-45A6-874A-0ED8887CEB4D}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8441,7 +8447,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8569,7 +8575,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8584,7 +8590,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8599,13 +8605,13 @@
         <v>316203</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="H5" s="7">
         <v>184</v>
@@ -8614,13 +8620,13 @@
         <v>323495</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>589</v>
+        <v>214</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="M5" s="7">
         <v>326</v>
@@ -8629,13 +8635,13 @@
         <v>639697</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8650,13 +8656,13 @@
         <v>4835</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>383</v>
+        <v>598</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>493</v>
+        <v>599</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>332</v>
+        <v>600</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -8665,13 +8671,13 @@
         <v>2958</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>594</v>
+        <v>276</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -8680,13 +8686,13 @@
         <v>7793</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>413</v>
+        <v>603</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8701,13 +8707,13 @@
         <v>33380</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>598</v>
+        <v>519</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -8716,13 +8722,13 @@
         <v>15801</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>600</v>
+        <v>171</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>601</v>
+        <v>578</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>602</v>
+        <v>308</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -8731,13 +8737,13 @@
         <v>49181</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>604</v>
+        <v>515</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8811,7 +8817,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>605</v>
+        <v>180</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -8826,7 +8832,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -8841,7 +8847,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8856,13 +8862,13 @@
         <v>370882</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>608</v>
+        <v>298</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H10" s="7">
         <v>413</v>
@@ -8871,13 +8877,13 @@
         <v>455839</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>60</v>
+        <v>611</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="M10" s="7">
         <v>672</v>
@@ -8886,13 +8892,13 @@
         <v>826721</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8907,13 +8913,13 @@
         <v>9475</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>54</v>
+        <v>618</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>128</v>
+        <v>619</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -8922,13 +8928,13 @@
         <v>6570</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>251</v>
+        <v>127</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>115</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>616</v>
+        <v>579</v>
       </c>
       <c r="M11" s="7">
         <v>11</v>
@@ -8937,13 +8943,13 @@
         <v>16045</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>617</v>
+        <v>491</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>191</v>
+        <v>436</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8958,13 +8964,13 @@
         <v>28327</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>309</v>
+        <v>622</v>
       </c>
       <c r="H12" s="7">
         <v>23</v>
@@ -8973,13 +8979,13 @@
         <v>24287</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="M12" s="7">
         <v>41</v>
@@ -8988,13 +8994,13 @@
         <v>52615</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>190</v>
+        <v>627</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>575</v>
+        <v>628</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9068,7 +9074,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>35</v>
+        <v>264</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -9083,7 +9089,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -9098,7 +9104,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9113,13 +9119,13 @@
         <v>500201</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>266</v>
+        <v>630</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>625</v>
+        <v>590</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="H15" s="7">
         <v>774</v>
@@ -9128,13 +9134,13 @@
         <v>540798</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>628</v>
+        <v>90</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="M15" s="7">
         <v>1250</v>
@@ -9143,13 +9149,13 @@
         <v>1040998</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>588</v>
+        <v>636</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -9164,13 +9170,13 @@
         <v>10888</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>633</v>
+        <v>552</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -9179,13 +9185,13 @@
         <v>3221</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>635</v>
+        <v>372</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>371</v>
+        <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>636</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -9194,13 +9200,13 @@
         <v>14108</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9215,13 +9221,13 @@
         <v>34086</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>68</v>
+        <v>643</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="H17" s="7">
         <v>41</v>
@@ -9230,13 +9236,13 @@
         <v>27846</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>643</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="M17" s="7">
         <v>79</v>
@@ -9245,13 +9251,13 @@
         <v>61932</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>488</v>
+        <v>648</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9325,7 +9331,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -9355,7 +9361,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9370,13 +9376,13 @@
         <v>590705</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>26</v>
+        <v>653</v>
       </c>
       <c r="H20" s="7">
         <v>1063</v>
@@ -9388,10 +9394,10 @@
         <v>19</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>589</v>
+        <v>123</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="M20" s="7">
         <v>1645</v>
@@ -9400,13 +9406,13 @@
         <v>1284546</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>264</v>
+        <v>157</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9421,13 +9427,13 @@
         <v>12545</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>617</v>
+        <v>491</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>653</v>
+        <v>193</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>654</v>
+        <v>532</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
@@ -9436,13 +9442,13 @@
         <v>9777</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>50</v>
+        <v>658</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="M21" s="7">
         <v>26</v>
@@ -9451,13 +9457,13 @@
         <v>22322</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>192</v>
+        <v>662</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9472,13 +9478,13 @@
         <v>99257</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="H22" s="7">
         <v>43</v>
@@ -9487,13 +9493,13 @@
         <v>32709</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>308</v>
+        <v>666</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>525</v>
+        <v>440</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="M22" s="7">
         <v>91</v>
@@ -9502,13 +9508,13 @@
         <v>131966</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9564,7 +9570,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9582,7 +9588,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -9597,7 +9603,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -9627,13 +9633,13 @@
         <v>530456</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>270</v>
+        <v>672</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="H25" s="7">
         <v>911</v>
@@ -9642,13 +9648,13 @@
         <v>539843</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>478</v>
+        <v>675</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="M25" s="7">
         <v>1490</v>
@@ -9657,13 +9663,13 @@
         <v>1070299</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9678,13 +9684,13 @@
         <v>6836</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>673</v>
+        <v>279</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -9696,10 +9702,10 @@
         <v>29</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>411</v>
+        <v>70</v>
       </c>
       <c r="M26" s="7">
         <v>21</v>
@@ -9708,13 +9714,13 @@
         <v>15427</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>85</v>
+        <v>436</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>73</v>
+        <v>637</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9729,13 +9735,13 @@
         <v>49775</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="H27" s="7">
         <v>56</v>
@@ -9744,13 +9750,13 @@
         <v>34399</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>233</v>
+        <v>686</v>
       </c>
       <c r="M27" s="7">
         <v>117</v>
@@ -9759,13 +9765,13 @@
         <v>84175</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>229</v>
+        <v>688</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>662</v>
+        <v>689</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9821,7 +9827,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -9869,7 +9875,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9884,13 +9890,13 @@
         <v>592078</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>683</v>
+        <v>241</v>
       </c>
       <c r="H30" s="7">
         <v>1504</v>
@@ -9899,13 +9905,13 @@
         <v>910397</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>210</v>
+        <v>693</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="M30" s="7">
         <v>2379</v>
@@ -9914,13 +9920,13 @@
         <v>1502475</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>266</v>
+        <v>697</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9935,13 +9941,13 @@
         <v>12870</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>688</v>
+        <v>698</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="H31" s="7">
         <v>16</v>
@@ -9950,13 +9956,13 @@
         <v>10718</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>189</v>
+        <v>661</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="M31" s="7">
         <v>32</v>
@@ -9965,13 +9971,13 @@
         <v>23588</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>693</v>
+        <v>52</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>695</v>
+        <v>641</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9986,13 +9992,13 @@
         <v>74307</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>697</v>
+        <v>586</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="H32" s="7">
         <v>142</v>
@@ -10001,13 +10007,13 @@
         <v>80269</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>507</v>
+        <v>706</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="M32" s="7">
         <v>252</v>
@@ -10016,13 +10022,13 @@
         <v>154576</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>702</v>
+        <v>493</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>171</v>
+        <v>709</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10096,7 +10102,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -10111,7 +10117,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -10126,7 +10132,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10141,13 +10147,13 @@
         <v>2900524</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="H35" s="7">
         <v>4849</v>
@@ -10156,13 +10162,13 @@
         <v>3464213</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>709</v>
+        <v>610</v>
       </c>
       <c r="M35" s="7">
         <v>7762</v>
@@ -10171,13 +10177,13 @@
         <v>6364737</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>610</v>
+        <v>716</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10192,13 +10198,13 @@
         <v>57450</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>712</v>
+        <v>220</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>714</v>
+        <v>302</v>
       </c>
       <c r="H36" s="7">
         <v>61</v>
@@ -10207,13 +10213,13 @@
         <v>41834</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>54</v>
+        <v>720</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>358</v>
+        <v>721</v>
       </c>
       <c r="M36" s="7">
         <v>114</v>
@@ -10222,13 +10228,13 @@
         <v>99284</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>715</v>
+        <v>534</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>673</v>
+        <v>602</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10243,13 +10249,13 @@
         <v>319134</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>578</v>
+        <v>724</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="H37" s="7">
         <v>313</v>
@@ -10258,13 +10264,13 @@
         <v>215311</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>719</v>
+        <v>141</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>721</v>
+        <v>41</v>
       </c>
       <c r="M37" s="7">
         <v>599</v>
@@ -10273,13 +10279,13 @@
         <v>534445</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>722</v>
+        <v>113</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>723</v>
+        <v>646</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>724</v>
+        <v>709</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10335,7 +10341,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
